--- a/docs/presentations/20220131/candidates.xlsx
+++ b/docs/presentations/20220131/candidates.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ms13525_bristol_ac_uk/Documents/Documents/GitHub/epigenetics-journal-club/docs/presentations/20220131/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{FC764D23-AB5E-4473-8322-D2A334110939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6129A55E-971B-4A7F-A203-DECD6169382F}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{FC764D23-AB5E-4473-8322-D2A334110939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5F6B3CE-5C55-4802-A2F2-196BB224DE27}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="585" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="585" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
     <sheet name="follow-up" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'follow-up'!$A$1:$F$15</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="200">
   <si>
     <t>EC</t>
   </si>
@@ -638,6 +641,9 @@
   </si>
   <si>
     <t>me+Scott</t>
+  </si>
+  <si>
+    <t>people</t>
   </si>
 </sst>
 </file>
@@ -1481,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D64" sqref="D2:D64"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2968,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7BB3F4-BBEA-4CC6-A1AE-7FAD8CB7D718}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2978,6 +2984,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3275,6 +3284,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F15" xr:uid="{6F7BB3F4-BBEA-4CC6-A1AE-7FAD8CB7D718}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>